--- a/data/case1/9/Qlm1_6.xlsx
+++ b/data/case1/9/Qlm1_6.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.15758672390627737</v>
+        <v>-0.19925705524686776</v>
       </c>
       <c r="B1" s="0">
-        <v>0.1573766538721415</v>
+        <v>0.19893259219436743</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.13526988904563364</v>
+        <v>-0.17682640472112965</v>
       </c>
       <c r="B2" s="0">
-        <v>0.13452403370233057</v>
+        <v>0.17556712402760155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.066869696666545408</v>
+        <v>-0.096558432142815676</v>
       </c>
       <c r="B3" s="0">
-        <v>0.066796105235129133</v>
+        <v>0.096379727240471169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.058796105248864805</v>
+        <v>-0.088379727264365826</v>
       </c>
       <c r="B4" s="0">
-        <v>0.058620073729139577</v>
+        <v>0.088047677239238453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.055620073736203146</v>
+        <v>-0.085047677252513942</v>
       </c>
       <c r="B5" s="0">
-        <v>0.055048333838691121</v>
+        <v>0.083934116429140282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.021302757820294005</v>
+        <v>-0.029975433368996107</v>
       </c>
       <c r="B6" s="0">
-        <v>0.021130902169904431</v>
+        <v>0.029704815344976154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01113090218819579</v>
+        <v>-0.019704815377867835</v>
       </c>
       <c r="B7" s="0">
-        <v>0.011102399770777982</v>
+        <v>0.019650783628786694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0011023997892305459</v>
+        <v>-0.0096507836622099497</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0010797707249885491</v>
+        <v>0.0095845958999096759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.00092022926800883198</v>
+        <v>-0.0075845959147899933</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00093200077493849065</v>
+        <v>0.0075393611009912931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0029320007679558557</v>
+        <v>-0.0055393611161900225</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0029320158035321953</v>
+        <v>0.0055374316793557199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0059320157951221475</v>
+        <v>-0.0025374316969237753</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0059323965313327065</v>
+        <v>0.0025347787318166226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0094323965222233852</v>
+        <v>0.00096522124940934262</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0094392585434031062</v>
+        <v>-0.00097773913459731077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.01293925853461797</v>
+        <v>0.0044777391158818958</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.012949328792425163</v>
+        <v>-0.0044806666931247463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090798035267312116</v>
+        <v>-0.0090822244949819719</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090516962732802853</v>
+        <v>0.0090532887038801135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008051696278445597</v>
+        <v>-0.0080532887167983347</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080335229558441412</v>
+        <v>0.0080345842961051517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060335229625727571</v>
+        <v>-0.0060345843116231812</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060036130920071429</v>
+        <v>0.0060036701847723251</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040036130989067331</v>
+        <v>-0.0040036702005901148</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999901780825</v>
+        <v>0.0039999999793609575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016106764835473797</v>
+        <v>-0.016106187488041712</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016092099311265429</v>
+        <v>0.016092054083877372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012092099317338789</v>
+        <v>-0.012092054093994609</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017285606277017</v>
+        <v>0.012017162944699233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080172856127411762</v>
+        <v>-0.008017162955477275</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057330701936991</v>
+        <v>0.0080057317454826915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057330767178101</v>
+        <v>-0.0040057317563588768</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999934305919</v>
+        <v>0.0039999999890385496</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.063654337043269393</v>
+        <v>-0.075008691897986424</v>
       </c>
       <c r="B22" s="0">
-        <v>0.063301031064138868</v>
+        <v>0.074545806045755114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040499531447270698</v>
+        <v>-0.040502859822161952</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009923319293307</v>
+        <v>0.040099872718867502</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099233224815549</v>
+        <v>-0.020099872772454397</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999967716064</v>
+        <v>0.019999999945747859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.031745576025087985</v>
+        <v>-0.051958683073882739</v>
       </c>
       <c r="B25" s="0">
-        <v>0.031733491866301478</v>
+        <v>0.05192539345898517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.029233491873771555</v>
+        <v>-0.049425393474232138</v>
       </c>
       <c r="B26" s="0">
-        <v>0.029220726747338333</v>
+        <v>0.04938576360993352</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.026720726755013136</v>
+        <v>-0.046885763625664989</v>
       </c>
       <c r="B27" s="0">
-        <v>0.026659384261612296</v>
+        <v>0.046670117687799273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.024659384269237528</v>
+        <v>-0.044670117704391998</v>
       </c>
       <c r="B28" s="0">
-        <v>0.024625875332459302</v>
+        <v>0.044535351065057682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081345349841845938</v>
+        <v>-0.08135466333239183</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081166100922687612</v>
+        <v>0.081170451566499047</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021166101014960415</v>
+        <v>-0.021170451723431682</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023796475951873</v>
+        <v>0.021024125002023553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023796492708129</v>
+        <v>-0.014024125034373114</v>
       </c>
       <c r="B31" s="0">
-        <v>0.01400166223486643</v>
+        <v>0.014001572517891248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040016622560106185</v>
+        <v>-0.0040015725575184291</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999874531511</v>
+        <v>0.003999999974524826</v>
       </c>
     </row>
   </sheetData>
